--- a/static/usersmit.xlsx
+++ b/static/usersmit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ogahserge/Documents/smitci/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39559F2-4712-0C48-A2D8-AABE689C7E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337128A3-5AA4-1D47-9338-AC103076BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{4FD2C7B5-7148-8044-99F4-077B0AB2C4B2}"/>
+    <workbookView xWindow="8300" yWindow="4860" windowWidth="28040" windowHeight="17440" xr2:uid="{4FD2C7B5-7148-8044-99F4-077B0AB2C4B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>NOM&amp; PRENOMS</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>NON PARVENU</t>
+  </si>
+  <si>
+    <t>password2smit</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,23 +435,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -764,21 +777,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42708B73-FB95-8A4C-A381-2C5CC13B1638}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,432 +801,444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="D30" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1225,7 +1249,7 @@
       <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1236,7 +1260,7 @@
       <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1244,8 +1268,8 @@
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" s="4" t="s">
         <v>103</v>
       </c>
     </row>
